--- a/T2.xlsx
+++ b/T2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Desktop\Project Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="0" windowWidth="25725" windowHeight="15795" tabRatio="500"/>
+    <workbookView xWindow="840" yWindow="0" windowWidth="21300" windowHeight="13220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Data</t>
   </si>
@@ -54,12 +49,22 @@
   <si>
     <t>Yearly</t>
   </si>
+  <si>
+    <t>Users</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,17 +90,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -164,26 +172,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -195,6 +183,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Users</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -206,6 +205,216 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CF5CE240-3F1F-4715-B950-867D385EF4B4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{E523239F-E6AE-49D7-B86C-1420ACA3625A}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5C795875-8114-466F-9933-8A03ABA00A9E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{E897A0BA-821F-4847-8B63-D2BD7C8976B8}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F26087AF-3161-4DF1-9A6D-8D9B73DDC25B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{3F709740-F1A2-4F33-9340-DD86B81A5B5F}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CD232B04-ABBD-4ACE-9FDA-4E523F77F9FC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{C4F76452-1701-4434-883E-79332AD36A13}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1A610DCA-061B-4484-8CB4-C922DF35648E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{33C294CD-EC8E-4445-8B54-ADFBE9286C27}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -236,15 +445,16 @@
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:separator>, </c:separator>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -265,7 +475,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$E$2</c:f>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -288,28 +498,53 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$E$3</c:f>
+              <c:f>Sheet1!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$B$4:$F$4</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>49%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>17%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16%</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6%</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>11%</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -320,16 +555,52 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-704427680"/>
-        <c:axId val="-704434208"/>
+        <c:axId val="2081809704"/>
+        <c:axId val="2081816024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-704427680"/>
+        <c:axId val="2081809704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Frequency of Access</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -367,7 +638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-704434208"/>
+        <c:crossAx val="2081816024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -375,7 +646,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-704434208"/>
+        <c:axId val="2081816024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -395,6 +666,42 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Users</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -426,7 +733,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-704427680"/>
+        <c:crossAx val="2081809704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1024,13 +1331,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
@@ -1377,94 +1684,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
-    <col min="10" max="10" width="17.75" customWidth="1"/>
-    <col min="11" max="11" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
         <v>40</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>14</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>13</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>9</v>
       </c>
+      <c r="G3">
+        <f>SUM(B3:F3)</f>
+        <v>81</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f>ZTEST(A3:B3, 0)</f>
-        <v>1.8904329735190711E-2</v>
-      </c>
+    <row r="4" spans="1:8">
+      <c r="B4" s="2">
+        <f>B3/G3</f>
+        <v>0.49382716049382713</v>
+      </c>
+      <c r="C4" s="2">
+        <f>C3/G3</f>
+        <v>0.1728395061728395</v>
+      </c>
+      <c r="D4" s="2">
+        <f>D3/G3</f>
+        <v>0.16049382716049382</v>
+      </c>
+      <c r="E4" s="2">
+        <f>E3/G3</f>
+        <v>6.1728395061728392E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <f>F3/G3</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="B6">
         <f>ZTEST(B3:C3, 0)</f>
-        <v>7.3894810068845936E-161</v>
+        <v>1.8904329735190711E-2</v>
       </c>
       <c r="C6">
         <f>ZTEST(C3:D3, 0)</f>
-        <v>1.2224472655044696E-2</v>
+        <v>7.3894810068845936E-161</v>
       </c>
       <c r="D6">
         <f>ZTEST(D3:E3, 0)</f>
+        <v>1.2224472655044696E-2</v>
+      </c>
+      <c r="E6">
+        <f>ZTEST(E3:F3, 0)</f>
         <v>2.3262907903552504E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f>ZTEST(A3:E3,0)</f>
+    <row r="8" spans="1:8">
+      <c r="B8">
+        <f>ZTEST(B3:F3,0)</f>
         <v>4.2684371326058481E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1481,8 +1820,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>